--- a/data_wrangling/data_source/panda_02_read_excel_02.xlsx
+++ b/data_wrangling/data_source/panda_02_read_excel_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>沙河所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一税务所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀税务所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南法信税务所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>911101140055</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -510,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -544,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -568,17 +584,34 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
